--- a/Dishes_Database.xlsx
+++ b/Dishes_Database.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$AC$194</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="237">
   <si>
     <t>name</t>
   </si>
@@ -40,51 +42,375 @@
     <t>Illegitimate side dishes</t>
   </si>
   <si>
+    <t>Kajali ambad</t>
+  </si>
+  <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>side dish</t>
+  </si>
+  <si>
+    <t>ambad</t>
+  </si>
+  <si>
+    <t>vata</t>
+  </si>
+  <si>
+    <t>unspecified</t>
+  </si>
+  <si>
+    <t>Soybean ambad</t>
+  </si>
+  <si>
+    <t>Kachanna ambad</t>
+  </si>
+  <si>
+    <t>Kidneybean ambad</t>
+  </si>
+  <si>
+    <t>Beans ambad</t>
+  </si>
+  <si>
+    <t>Butter beans ambad</t>
+  </si>
+  <si>
+    <t>Chowla ambad</t>
+  </si>
+  <si>
+    <t>Kennu ambad</t>
+  </si>
+  <si>
+    <t>Pattani ambad</t>
+  </si>
+  <si>
+    <t>Soychunk ambad</t>
+  </si>
+  <si>
+    <t>Kelangu ambad</t>
+  </si>
+  <si>
+    <t>Khovla ambad</t>
+  </si>
+  <si>
+    <t>anti pita</t>
+  </si>
+  <si>
+    <t>Jinaware ambad</t>
+  </si>
+  <si>
+    <t>Cauliflower ambad</t>
+  </si>
+  <si>
+    <t>pita</t>
+  </si>
+  <si>
+    <t>Vangi ambad</t>
+  </si>
+  <si>
+    <t>Ambad bhajji ambad</t>
+  </si>
+  <si>
+    <t>Onna ambad</t>
+  </si>
+  <si>
+    <t>Kacha kela ambad</t>
+  </si>
+  <si>
+    <t>Bhonde ambad</t>
+  </si>
+  <si>
+    <t>Thandu keerai ambad</t>
+  </si>
+  <si>
+    <t>Agasthir ambad</t>
+  </si>
+  <si>
+    <t>Nhanna kalla ambad</t>
+  </si>
+  <si>
+    <t>Kalla ambad</t>
+  </si>
+  <si>
+    <t>Knolkhol ambad</t>
+  </si>
+  <si>
+    <t>Green pappali ambad</t>
+  </si>
+  <si>
+    <t>Chappati</t>
+  </si>
+  <si>
+    <t>breakfast or dinner</t>
+  </si>
+  <si>
+    <t>main dish</t>
+  </si>
+  <si>
+    <t>chapathi</t>
+  </si>
+  <si>
+    <t>Poori</t>
+  </si>
+  <si>
+    <t>Kelangu masal, Bombay chutney, Pattani kurma</t>
+  </si>
+  <si>
+    <t>Methi paratha</t>
+  </si>
+  <si>
+    <t>Vangi chutney</t>
+  </si>
+  <si>
+    <t>chutney</t>
+  </si>
+  <si>
+    <t>Nalar chutney</t>
+  </si>
+  <si>
+    <t>Kandha chutney</t>
+  </si>
+  <si>
+    <t>Pudina chutney</t>
+  </si>
+  <si>
+    <t>anti vata</t>
+  </si>
+  <si>
+    <t>Alla chutney</t>
+  </si>
+  <si>
+    <t>Thakkali omty</t>
+  </si>
+  <si>
+    <t>Aviyal for adai</t>
+  </si>
+  <si>
+    <t>Thikka nalar chutney</t>
+  </si>
+  <si>
+    <t>Idiyappam</t>
+  </si>
+  <si>
+    <t>afternoon snack</t>
+  </si>
+  <si>
+    <t>Complete meal</t>
+  </si>
+  <si>
+    <t>Kandha poha</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>Egg omlet</t>
+  </si>
+  <si>
+    <t>nonvegetarian</t>
+  </si>
+  <si>
+    <t>Aloo paratha</t>
+  </si>
+  <si>
+    <t>Spaghetti (with marinara)</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>Pasta with broccoli, mushrooms in alfredo sauce</t>
+  </si>
+  <si>
+    <t>Pav Bhaji</t>
+  </si>
+  <si>
+    <t>Blackbean burrito</t>
+  </si>
+  <si>
+    <t>Vegetables in Chinese hot garlic sauce</t>
+  </si>
+  <si>
+    <t>Carrot-beans-capsicum fried rice</t>
+  </si>
+  <si>
+    <t>lunch or dinner</t>
+  </si>
+  <si>
+    <t>Broccoli-capsicum fried rice</t>
+  </si>
+  <si>
+    <t>Mushroom biryani</t>
+  </si>
+  <si>
+    <t>Dheim kandha, Saalna</t>
+  </si>
+  <si>
+    <t>Vegetable biryani</t>
+  </si>
+  <si>
+    <t>Paneer biryani</t>
+  </si>
+  <si>
+    <t>Eggplant parmesan</t>
+  </si>
+  <si>
+    <t>Minestrone soup</t>
+  </si>
+  <si>
+    <t>Shezwan fried rice</t>
+  </si>
+  <si>
+    <t>Gobi manchurian</t>
+  </si>
+  <si>
+    <t>Plain dosa</t>
+  </si>
+  <si>
+    <t>dhida-phalar</t>
+  </si>
+  <si>
+    <t>Onion uttappam</t>
+  </si>
+  <si>
+    <t>Carrot-Beetroot dosa</t>
+  </si>
+  <si>
+    <t>Phalar</t>
+  </si>
+  <si>
+    <t>Godhumai dhida</t>
+  </si>
+  <si>
+    <t>Pasipparuppu adai</t>
+  </si>
+  <si>
+    <t>Paniyaram</t>
+  </si>
+  <si>
+    <t>Tomato omlet (uttappam)</t>
+  </si>
+  <si>
+    <t>Fried chilli idli</t>
+  </si>
+  <si>
+    <t>Dheim kandha</t>
+  </si>
+  <si>
+    <t>Nalar kutkiri</t>
+  </si>
+  <si>
+    <t>kutkiri</t>
+  </si>
+  <si>
+    <t>Bhonde kutkiri</t>
+  </si>
+  <si>
+    <t>Palak keerai kutkiri</t>
+  </si>
+  <si>
+    <t>Pasalai keerai kutkiri</t>
+  </si>
+  <si>
+    <t>Sirukeerai kutkiri</t>
+  </si>
+  <si>
+    <t>Bottle gourd kutkiri</t>
+  </si>
+  <si>
+    <t>Dal makhni</t>
+  </si>
+  <si>
+    <t>omty</t>
+  </si>
+  <si>
+    <t>Knolkhol-Sevaikkelo omty</t>
+  </si>
+  <si>
+    <t>Knolkhol-Sevaikkelo-kelangu omty</t>
+  </si>
+  <si>
+    <t>Vangi omty</t>
+  </si>
+  <si>
+    <t>Agasthir omty</t>
+  </si>
+  <si>
+    <t>Vangi-Sevaikkelo omty</t>
+  </si>
+  <si>
+    <t>Dhonka omty</t>
+  </si>
+  <si>
+    <t>Karunai kelangu omty</t>
+  </si>
+  <si>
+    <t>Losan kolkar</t>
+  </si>
+  <si>
+    <t>Alla kolkar</t>
+  </si>
+  <si>
+    <t>Mithi kolkar</t>
+  </si>
+  <si>
+    <t>Uskaila kolkar</t>
+  </si>
+  <si>
+    <t>Nalar dhoodh omty</t>
+  </si>
+  <si>
+    <t>Nalar dhoodh</t>
+  </si>
+  <si>
+    <t>Paruppu urundai kolambu</t>
+  </si>
+  <si>
+    <t>Onna omty</t>
+  </si>
+  <si>
+    <t>Moolaa omty</t>
+  </si>
+  <si>
+    <t>Jackfruit seed omty</t>
+  </si>
+  <si>
+    <t>Plain kurma</t>
+  </si>
+  <si>
+    <t>Pilchar</t>
+  </si>
+  <si>
+    <t>pilchar</t>
+  </si>
+  <si>
+    <t>Losan pilchar</t>
+  </si>
+  <si>
+    <t>Ambad bhat</t>
+  </si>
+  <si>
+    <t>pongal</t>
+  </si>
+  <si>
+    <t>Nalar chillu, Kachanna sundal</t>
+  </si>
+  <si>
+    <t>Muhri pongal</t>
+  </si>
+  <si>
+    <t>Dhoura pongal</t>
+  </si>
+  <si>
     <t>Mudha pongal</t>
   </si>
   <si>
-    <t>vegetarian</t>
-  </si>
-  <si>
-    <t>breakfast or dinner</t>
-  </si>
-  <si>
-    <t>main dish</t>
-  </si>
-  <si>
-    <t>pongal</t>
-  </si>
-  <si>
-    <t>unspecified</t>
-  </si>
-  <si>
     <t>Vangi chutney, Plain sambar, Nilam bela sambar, Nalar chutney, Kandha chutney</t>
   </si>
   <si>
-    <t>Vangi chutney</t>
-  </si>
-  <si>
-    <t>side dish</t>
-  </si>
-  <si>
-    <t>chutney</t>
-  </si>
-  <si>
-    <t>Plain dosa</t>
-  </si>
-  <si>
-    <t>dhida-phalar</t>
-  </si>
-  <si>
-    <t>Onion uttappam</t>
-  </si>
-  <si>
-    <t>Carrot-Beetroot dosa</t>
-  </si>
-  <si>
-    <t>Phalar</t>
-  </si>
-  <si>
     <t>Limbu pongal</t>
   </si>
   <si>
@@ -94,424 +420,286 @@
     <t>Thakkali pongal</t>
   </si>
   <si>
-    <t>Nalar chutney</t>
-  </si>
-  <si>
     <t>Nalar pongal</t>
   </si>
   <si>
-    <t>Kandha chutney</t>
-  </si>
-  <si>
-    <t>vata</t>
-  </si>
-  <si>
-    <t>Pudina chutney</t>
-  </si>
-  <si>
-    <t>anti vata</t>
-  </si>
-  <si>
-    <t>Alla chutney</t>
-  </si>
-  <si>
-    <t>pita</t>
-  </si>
-  <si>
-    <t>Godhumai dhida</t>
-  </si>
-  <si>
-    <t>Ambad bhat</t>
-  </si>
-  <si>
-    <t>breakfast</t>
-  </si>
-  <si>
-    <t>Nalar chillu, Kachanna sundal</t>
+    <t>Masala pongal</t>
+  </si>
+  <si>
+    <t>Kothamalli sadham</t>
+  </si>
+  <si>
+    <t>Pudina sadham</t>
+  </si>
+  <si>
+    <t>Rava Kichdi</t>
+  </si>
+  <si>
+    <t>Nalar chutney, Plain sambar, Pasi paruppu sambar</t>
+  </si>
+  <si>
+    <t>Dalia kichdi</t>
+  </si>
+  <si>
+    <t>Sambar sadham</t>
+  </si>
+  <si>
+    <t>Beans poriyal</t>
+  </si>
+  <si>
+    <t>poriyal</t>
+  </si>
+  <si>
+    <t>Carrot poriyal</t>
+  </si>
+  <si>
+    <t>Muttaikos poriyal</t>
+  </si>
+  <si>
+    <t>Carrot-muttaikos poriyal</t>
+  </si>
+  <si>
+    <t>Congress poriyal</t>
+  </si>
+  <si>
+    <t>Beetroot poriyal</t>
+  </si>
+  <si>
+    <t>Kennu poriyal</t>
+  </si>
+  <si>
+    <t>Kacha kela poriyal</t>
+  </si>
+  <si>
+    <t>Bhonde poriyal</t>
+  </si>
+  <si>
+    <t>Pudalankai poriyal</t>
+  </si>
+  <si>
+    <t>Chana dal poriyal</t>
+  </si>
+  <si>
+    <t>Kachana poriyal</t>
+  </si>
+  <si>
+    <t>Bottle gourd poriyal</t>
+  </si>
+  <si>
+    <t>Beans paruppu usili</t>
+  </si>
+  <si>
+    <t>Vendaikkai paruppu usili</t>
+  </si>
+  <si>
+    <t>Onna paruppu usili</t>
+  </si>
+  <si>
+    <t>Vangi thelni</t>
+  </si>
+  <si>
+    <t>Murungai keerai poltaya</t>
+  </si>
+  <si>
+    <t>Siru keerai poltaya</t>
+  </si>
+  <si>
+    <t>Mushroom pepper fry</t>
+  </si>
+  <si>
+    <t>roast</t>
+  </si>
+  <si>
+    <t>Kelangu podimas</t>
+  </si>
+  <si>
+    <t>Suran roast</t>
+  </si>
+  <si>
+    <t>Soychunk roast</t>
+  </si>
+  <si>
+    <t>Chilli cauliflower fry</t>
+  </si>
+  <si>
+    <t>Plain sambar</t>
+  </si>
+  <si>
+    <t>sambar</t>
+  </si>
+  <si>
+    <t>Nilam bela sambar</t>
+  </si>
+  <si>
+    <t>Knolkhol-Sevaikkelo sambar</t>
+  </si>
+  <si>
+    <t>Carrot-muttaikos sambar</t>
+  </si>
+  <si>
+    <t>Yellow poosani sambar</t>
+  </si>
+  <si>
+    <t>Kalla sambar</t>
+  </si>
+  <si>
+    <t>Carrot-muttaikos-chowchow sambar</t>
+  </si>
+  <si>
+    <t>Knolkhol-Sevaikkelo-chowchow sambar</t>
+  </si>
+  <si>
+    <t>Vengaya sambar</t>
+  </si>
+  <si>
+    <t>Vangi-sevaikkelo sambar</t>
+  </si>
+  <si>
+    <t>Moola sambar</t>
+  </si>
+  <si>
+    <t>Kelangu masal</t>
+  </si>
+  <si>
+    <t>subzi</t>
+  </si>
+  <si>
+    <t>Bombay chutney</t>
+  </si>
+  <si>
+    <t>Pattani kurma</t>
+  </si>
+  <si>
+    <t>Thakkali ambad</t>
+  </si>
+  <si>
+    <t>Mattar paneer</t>
+  </si>
+  <si>
+    <t>Paneer bhurji</t>
+  </si>
+  <si>
+    <t>Palak paneer</t>
+  </si>
+  <si>
+    <t>Paneer butter masala</t>
+  </si>
+  <si>
+    <t>Dry aloo capsicum</t>
+  </si>
+  <si>
+    <t>Aloo gobi dry</t>
+  </si>
+  <si>
+    <t>Mushroom manchurian</t>
+  </si>
+  <si>
+    <t>Roadside kalan</t>
+  </si>
+  <si>
+    <t>Orange frest fruit</t>
+  </si>
+  <si>
+    <t>Apple fresh fruit</t>
+  </si>
+  <si>
+    <t>Pomegranate fresh fruit</t>
+  </si>
+  <si>
+    <t>Muskmelon juice</t>
+  </si>
+  <si>
+    <t>Ambula</t>
+  </si>
+  <si>
+    <t>Koyya polla</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Avocado (Butter fruit)</t>
+  </si>
+  <si>
+    <t>Mango (raw)</t>
+  </si>
+  <si>
+    <t>Mango (ripe)</t>
+  </si>
+  <si>
+    <t>Bhel</t>
+  </si>
+  <si>
+    <t>Manga, thenga, pattani salad</t>
+  </si>
+  <si>
+    <t>Suja kadalai, carrot, onion, tomato salad</t>
+  </si>
+  <si>
+    <t>Celery sticks</t>
+  </si>
+  <si>
+    <t>Mushroom, red capsicum, broccoli Italian stir fry</t>
+  </si>
+  <si>
+    <t>Stir fried vegetables in hoisin sauce</t>
+  </si>
+  <si>
+    <t>Dragon fruit</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Cranberry juice</t>
+  </si>
+  <si>
+    <t>Green grapes</t>
+  </si>
+  <si>
+    <t>Red grapes</t>
+  </si>
+  <si>
+    <t>Bread pizza</t>
+  </si>
+  <si>
+    <t>Banana (Plantain)</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Ponnisu polla</t>
+  </si>
+  <si>
+    <t>Papaya fresh fruit</t>
+  </si>
+  <si>
+    <t>Sweet potato</t>
   </si>
   <si>
     <t>Nalar chillu</t>
   </si>
   <si>
-    <t>anti pita</t>
-  </si>
-  <si>
     <t>Kachanna sundal</t>
   </si>
   <si>
-    <t>Chappati</t>
-  </si>
-  <si>
-    <t>chapathi</t>
-  </si>
-  <si>
-    <t>Poori</t>
-  </si>
-  <si>
-    <t>Kelangu masal, Bombay chutney, Pattani kurma</t>
-  </si>
-  <si>
-    <t>Kelangu masal</t>
-  </si>
-  <si>
-    <t>subzi</t>
-  </si>
-  <si>
-    <t>Bombay chutney</t>
-  </si>
-  <si>
-    <t>Pattani kurma</t>
-  </si>
-  <si>
-    <t>Thakkali ambad</t>
-  </si>
-  <si>
-    <t>Aloo paratha</t>
-  </si>
-  <si>
-    <t>Complete meal</t>
-  </si>
-  <si>
-    <t>Methi paratha</t>
-  </si>
-  <si>
-    <t>Paneer butter masala</t>
-  </si>
-  <si>
-    <t>dinner</t>
-  </si>
-  <si>
-    <t>Mattar paneer</t>
-  </si>
-  <si>
-    <t>Paneer bhurji</t>
-  </si>
-  <si>
-    <t>Palak paneer</t>
-  </si>
-  <si>
-    <t>Dry aloo capsicum</t>
-  </si>
-  <si>
-    <t>Dal makhni</t>
-  </si>
-  <si>
-    <t>lunch</t>
-  </si>
-  <si>
-    <t>omty</t>
-  </si>
-  <si>
-    <t>Aloo gobi dry</t>
-  </si>
-  <si>
-    <t>Kandha poha</t>
-  </si>
-  <si>
-    <t>Muhri pongal</t>
-  </si>
-  <si>
-    <t>Plain sambar</t>
-  </si>
-  <si>
-    <t>sambar</t>
-  </si>
-  <si>
-    <t>Masala pongal</t>
-  </si>
-  <si>
-    <t>Kothamalli sadham</t>
-  </si>
-  <si>
-    <t>Pudina sadham</t>
-  </si>
-  <si>
-    <t>Rava Kichdi</t>
-  </si>
-  <si>
-    <t>Nalar chutney, Plain sambar, Pasi paruppu sambar</t>
-  </si>
-  <si>
-    <t>Dalia kichdi</t>
-  </si>
-  <si>
-    <t>Pasipparuppu adai</t>
-  </si>
-  <si>
-    <t>Aviyal for adai</t>
-  </si>
-  <si>
-    <t>Egg omlet</t>
-  </si>
-  <si>
-    <t>nonvegetarian</t>
-  </si>
-  <si>
-    <t>Thakkali omty</t>
-  </si>
-  <si>
-    <t>Dhoura pongal</t>
-  </si>
-  <si>
-    <t>Paniyaram</t>
-  </si>
-  <si>
-    <t>Tomato omlet (uttappam)</t>
-  </si>
-  <si>
-    <t>Idiyappam</t>
-  </si>
-  <si>
-    <t>afternoon snack</t>
-  </si>
-  <si>
-    <t>Sambar sadham</t>
-  </si>
-  <si>
-    <t>Knolkhol-Sevaikkelo sambar</t>
-  </si>
-  <si>
-    <t>Carrot-muttaikos sambar</t>
-  </si>
-  <si>
-    <t>Yellow poosani sambar</t>
-  </si>
-  <si>
-    <t>Kalla sambar</t>
-  </si>
-  <si>
-    <t>Carrot-muttaikos-chowchow sambar</t>
-  </si>
-  <si>
-    <t>Knolkhol-Sevaikkelo-chowchow sambar</t>
-  </si>
-  <si>
-    <t>Vengaya sambar</t>
-  </si>
-  <si>
-    <t>Vangi-sevaikkelo sambar</t>
-  </si>
-  <si>
-    <t>Knolkhol-Sevaikkelo omty</t>
-  </si>
-  <si>
-    <t>Knolkhol-Sevaikkelo-kelangu omty</t>
-  </si>
-  <si>
-    <t>Vangi omty</t>
-  </si>
-  <si>
-    <t>Agasthir omty</t>
-  </si>
-  <si>
-    <t>Vangi-Sevaikkelo omty</t>
-  </si>
-  <si>
-    <t>Dhonka omty</t>
-  </si>
-  <si>
-    <t>Karunai kelangu omty</t>
-  </si>
-  <si>
-    <t>Losan kolkar</t>
-  </si>
-  <si>
-    <t>Alla kolkar</t>
-  </si>
-  <si>
-    <t>Mithi kolkar</t>
-  </si>
-  <si>
-    <t>Uskaila kolkar</t>
-  </si>
-  <si>
-    <t>Pilchar</t>
-  </si>
-  <si>
-    <t>pilchar</t>
-  </si>
-  <si>
-    <t>Losan pilchar</t>
-  </si>
-  <si>
-    <t>Nalar dhoodh omty</t>
-  </si>
-  <si>
-    <t>Nalar dhoodh</t>
-  </si>
-  <si>
-    <t>Paruppu urundai kolambu</t>
-  </si>
-  <si>
-    <t>Kajali ambad</t>
-  </si>
-  <si>
-    <t>ambad</t>
-  </si>
-  <si>
-    <t>Soybean ambad</t>
-  </si>
-  <si>
-    <t>Kachanna ambad</t>
-  </si>
-  <si>
-    <t>Kidneybean ambad</t>
-  </si>
-  <si>
-    <t>Beans ambad</t>
-  </si>
-  <si>
-    <t>Onna omty</t>
-  </si>
-  <si>
-    <t>Butter beans ambad</t>
-  </si>
-  <si>
-    <t>Chowla ambad</t>
-  </si>
-  <si>
-    <t>Kennu ambad</t>
-  </si>
-  <si>
-    <t>Pattani ambad</t>
-  </si>
-  <si>
-    <t>Soychunk ambad</t>
-  </si>
-  <si>
-    <t>Kelangu ambad</t>
-  </si>
-  <si>
-    <t>Khovla ambad</t>
-  </si>
-  <si>
-    <t>Jinaware ambad</t>
-  </si>
-  <si>
-    <t>Cauliflower ambad</t>
-  </si>
-  <si>
-    <t>Vangi ambad</t>
-  </si>
-  <si>
-    <t>Ambad bhajji ambad</t>
-  </si>
-  <si>
-    <t>Onna ambad</t>
-  </si>
-  <si>
-    <t>Kacha kela ambad</t>
-  </si>
-  <si>
-    <t>Bhonde ambad</t>
-  </si>
-  <si>
-    <t>Thandu keerai ambad</t>
-  </si>
-  <si>
-    <t>Agasthir ambad</t>
-  </si>
-  <si>
-    <t>Nhanna kalla ambad</t>
-  </si>
-  <si>
-    <t>Kalla ambad</t>
-  </si>
-  <si>
-    <t>Knolkhol ambad</t>
-  </si>
-  <si>
-    <t>Green pappali ambad</t>
-  </si>
-  <si>
-    <t>Beans poriyal</t>
-  </si>
-  <si>
-    <t>poriyal</t>
-  </si>
-  <si>
-    <t>Carrot poriyal</t>
-  </si>
-  <si>
-    <t>Muttaikos poriyal</t>
-  </si>
-  <si>
-    <t>Carrot-muttaikos poriyal</t>
-  </si>
-  <si>
-    <t>Congress poriyal</t>
-  </si>
-  <si>
-    <t>Beetroot poriyal</t>
-  </si>
-  <si>
-    <t>Kennu poriyal</t>
-  </si>
-  <si>
-    <t>Kacha kela poriyal</t>
-  </si>
-  <si>
-    <t>Bhonde poriyal</t>
-  </si>
-  <si>
-    <t>Pudalankai poriyal</t>
-  </si>
-  <si>
-    <t>Chana dal poriyal</t>
-  </si>
-  <si>
-    <t>Kachana poriyal</t>
-  </si>
-  <si>
-    <t>Bottle gourd poriyal</t>
-  </si>
-  <si>
-    <t>Beans paruppu usili</t>
-  </si>
-  <si>
-    <t>Vendaikkai paruppu usili</t>
-  </si>
-  <si>
-    <t>Onna paruppu usili</t>
-  </si>
-  <si>
-    <t>Nalar kutkiri</t>
-  </si>
-  <si>
-    <t>kutkiri</t>
-  </si>
-  <si>
-    <t>Bhonde kutkiri</t>
-  </si>
-  <si>
-    <t>Palak keerai kutkiri</t>
-  </si>
-  <si>
-    <t>Pasalai keerai kutkiri</t>
-  </si>
-  <si>
-    <t>Sirukeerai kutkiri</t>
-  </si>
-  <si>
-    <t>Bottle gourd kutkiri</t>
-  </si>
-  <si>
-    <t>Vangi thelni</t>
-  </si>
-  <si>
-    <t>Mushroom pepper fry</t>
-  </si>
-  <si>
-    <t>roast</t>
-  </si>
-  <si>
-    <t>Kelangu podimas</t>
-  </si>
-  <si>
-    <t>Suran roast</t>
-  </si>
-  <si>
-    <t>Soychunk roast</t>
+    <t>Shulla bhath (Fermented bubbly bhath)</t>
+  </si>
+  <si>
+    <t>Mushroom soup</t>
+  </si>
+  <si>
+    <t>forenoon snack</t>
+  </si>
+  <si>
+    <t>French onion soup</t>
+  </si>
+  <si>
+    <t>Tomato soup</t>
+  </si>
+  <si>
+    <t>Saalna</t>
   </si>
   <si>
     <t>Meed vada</t>
@@ -535,190 +723,7 @@
     <t>Cauliflower bhajji</t>
   </si>
   <si>
-    <t>Gobi manchurian</t>
-  </si>
-  <si>
-    <t>Mushroom manchurian</t>
-  </si>
-  <si>
-    <t>Roadside kalan</t>
-  </si>
-  <si>
-    <t>Fried chilli idli</t>
-  </si>
-  <si>
-    <t>Dheim khandha</t>
-  </si>
-  <si>
-    <t>Carrot-beans-capsicum fried rice</t>
-  </si>
-  <si>
-    <t>lunch or dinner</t>
-  </si>
-  <si>
-    <t>Broccoli-capsicum fried rice</t>
-  </si>
-  <si>
-    <t>Mushroom biryani</t>
-  </si>
-  <si>
-    <t>Dheim khandha, Saalna</t>
-  </si>
-  <si>
-    <t>Vegetable biryani</t>
-  </si>
-  <si>
-    <t>Paneer biryani</t>
-  </si>
-  <si>
-    <t>Murungai keerai poltaya</t>
-  </si>
-  <si>
-    <t>Siru keerai poltaya</t>
-  </si>
-  <si>
-    <t>Moolaa omty</t>
-  </si>
-  <si>
-    <t>Moola sambar</t>
-  </si>
-  <si>
-    <t>Chilli cauliflower fry</t>
-  </si>
-  <si>
-    <t>Jackfruit seed omty</t>
-  </si>
-  <si>
-    <t>Plain kurma</t>
-  </si>
-  <si>
-    <t>Orange frest fruit</t>
-  </si>
-  <si>
-    <t>Apple fresh fruit</t>
-  </si>
-  <si>
-    <t>Pomegranate fresh fruit</t>
-  </si>
-  <si>
-    <t>Muskmelon juice</t>
-  </si>
-  <si>
-    <t>Ambula</t>
-  </si>
-  <si>
-    <t>Koyya polla</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
-  </si>
-  <si>
-    <t>Avocado (Butter fruit)</t>
-  </si>
-  <si>
-    <t>Mango (raw)</t>
-  </si>
-  <si>
-    <t>Mango (ripe)</t>
-  </si>
-  <si>
-    <t>Bhel</t>
-  </si>
-  <si>
-    <t>Manga, thenga, pattani salad</t>
-  </si>
-  <si>
-    <t>Suja kadalai, carrot, onion, tomato salad</t>
-  </si>
-  <si>
-    <t>Shulla bhath (Fermented bubbly bhath)</t>
-  </si>
-  <si>
-    <t>Celery sticks</t>
-  </si>
-  <si>
-    <t>Minestrone soup</t>
-  </si>
-  <si>
-    <t>Mushroom soup</t>
-  </si>
-  <si>
-    <t>forenoon snack</t>
-  </si>
-  <si>
-    <t>French onion soup</t>
-  </si>
-  <si>
-    <t>Tomato soup</t>
-  </si>
-  <si>
-    <t>Eggplant parmesan</t>
-  </si>
-  <si>
-    <t>Mushroom, red capsicum, broccoli Italian stir fry</t>
-  </si>
-  <si>
-    <t>Stir fried vegetables in hoisin sauce</t>
-  </si>
-  <si>
-    <t>Blackbean burrito</t>
-  </si>
-  <si>
-    <t>Dragon fruit</t>
-  </si>
-  <si>
-    <t>Strawberry</t>
-  </si>
-  <si>
-    <t>Cranberry juice</t>
-  </si>
-  <si>
-    <t>Green grapes</t>
-  </si>
-  <si>
-    <t>Red grapes</t>
-  </si>
-  <si>
-    <t>Bread pizza</t>
-  </si>
-  <si>
-    <t>Vegetables in Chinese hot garlic sauce</t>
-  </si>
-  <si>
-    <t>Shezwan fried rice</t>
-  </si>
-  <si>
-    <t>Spaghetti (with marinara)</t>
-  </si>
-  <si>
-    <t>Pasta with broccoli, mushrooms in alfredo sauce</t>
-  </si>
-  <si>
-    <t>Banana (Plantain)</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Ponnisu polla</t>
-  </si>
-  <si>
-    <t>Thikka nalar chutney</t>
-  </si>
-  <si>
-    <t>Pav Bhaji</t>
-  </si>
-  <si>
-    <t>Papaya fresh fruit</t>
-  </si>
-  <si>
-    <t>Sweet potato</t>
-  </si>
-  <si>
-    <t>Nilam bela sambar</t>
-  </si>
-  <si>
-    <t>Saalna</t>
+    <t>Bean chili</t>
   </si>
 </sst>
 </file>
@@ -992,10 +997,9 @@
     <col customWidth="1" min="1" max="1" width="32.5"/>
     <col customWidth="1" hidden="1" min="2" max="2" width="27.5"/>
     <col customWidth="1" min="3" max="3" width="25.88"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="15.13"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="17.13"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="16.38"/>
+    <col customWidth="1" min="4" max="4" width="15.13"/>
+    <col customWidth="1" min="5" max="6" width="17.13"/>
+    <col customWidth="1" min="7" max="7" width="16.38"/>
     <col customWidth="1" min="8" max="8" width="40.75"/>
     <col customWidth="1" min="9" max="9" width="22.75"/>
   </cols>
@@ -1069,9 +1073,6 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1086,21 +1087,21 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1112,19 +1113,18 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -1136,18 +1136,18 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -1159,18 +1159,18 @@
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -1182,18 +1182,18 @@
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1211,12 +1211,12 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -1234,12 +1234,12 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -1257,12 +1257,12 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -1271,21 +1271,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1303,12 +1303,12 @@
         <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1317,21 +1317,21 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -1340,21 +1340,21 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1363,21 +1363,21 @@
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -1389,24 +1389,24 @@
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -1415,62 +1415,61 @@
         <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -1482,18 +1481,18 @@
         <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -1505,21 +1504,18 @@
         <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -1528,21 +1524,21 @@
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
@@ -1551,21 +1547,21 @@
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -1574,21 +1570,21 @@
         <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
@@ -1597,21 +1593,21 @@
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>10</v>
@@ -1623,450 +1619,435 @@
         <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -2075,436 +2056,452 @@
         <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
@@ -2515,19 +2512,19 @@
         <v>10</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -2538,19 +2535,19 @@
         <v>10</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -2561,19 +2558,19 @@
         <v>10</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -2584,19 +2581,19 @@
         <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -2607,19 +2604,19 @@
         <v>10</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -2630,65 +2627,65 @@
         <v>10</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -2699,19 +2696,19 @@
         <v>10</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -2722,19 +2719,19 @@
         <v>10</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -2745,19 +2742,19 @@
         <v>10</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -2768,19 +2765,19 @@
         <v>10</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -2791,295 +2788,295 @@
         <v>10</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F88" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -3090,1172 +3087,1194 @@
         <v>10</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F91" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F108" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="F126" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B130" s="4"/>
       <c r="C130" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G135" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140">
@@ -4266,45 +4285,42 @@
         <v>10</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -4315,22 +4331,19 @@
         <v>10</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
@@ -4341,22 +4354,19 @@
         <v>10</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -4367,19 +4377,19 @@
         <v>10</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
@@ -4390,19 +4400,19 @@
         <v>10</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
@@ -4413,19 +4423,19 @@
         <v>10</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
@@ -4436,19 +4446,19 @@
         <v>10</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148">
@@ -4459,19 +4469,19 @@
         <v>10</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -4482,1016 +4492,1047 @@
         <v>10</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F180" s="4"/>
       <c r="G180" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B183" s="4"/>
       <c r="C183" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B187" s="4"/>
       <c r="C187" s="3" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B191" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C191" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="4"/>
+      <c r="D191" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E191" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B192" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C192" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="4"/>
+      <c r="D192" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E192" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B193" s="4"/>
+      <c r="B193" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C193" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D193" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E193" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B194" s="4"/>
+      <c r="C194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
+      <c r="G194" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="195">
       <c r="B195" s="4"/>
@@ -11918,11 +11959,17 @@
       <c r="G997" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$AC$194">
+    <sortState ref="A1:AC194">
+      <sortCondition ref="E1:E194"/>
+      <sortCondition ref="C1:C194"/>
+    </sortState>
+  </autoFilter>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F151 F159:F179 F180:G183 F184:F997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F41 F42:G43 F44:F45 F46:G46 F47:F52 F53:G53 F54:F153 F161:F997">
       <formula1>"vata,pita,kapa,unspecified"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E151 E152:F158 E159:E997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E153 E154:F160 E161:E997">
       <formula1>"pongal,dhida-phalar,chapathi,sambar,pilchar,omty,poriyal,kutkiri,ambad,roast,chutney,subzi,unspecified,Vadai,Complete meal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C997">
@@ -11934,7 +11981,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D997">
       <formula1>"main dish,side dish"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G179 G184:G997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G41 G44:G45 G47:G52 G54:G997">
       <formula1>"anti vata,anti pita,anti kapa,unspecified"</formula1>
     </dataValidation>
   </dataValidations>
